--- a/data/60支股票信息.xlsx
+++ b/data/60支股票信息.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\备课\DS\2021xinxi\课设\数据结构课设代码-csv(1)\数据结构课设代码-csv\股票数据\股票基本信息数据\excel格式数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\StockSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54A87CC-1D5C-4C0A-AA47-460E6B550751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFCD7B-53BD-4DEB-BCA4-79CBEA8D94E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-810" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -441,7 +441,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -496,10 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -777,13 +777,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -849,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -959,7 +959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -981,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20">
       <c r="A20" s="3">
         <v>21</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21">
       <c r="A21" s="3">
         <v>23</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22">
       <c r="A22" s="3">
         <v>24</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23">
       <c r="A23" s="3">
         <v>25</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24">
       <c r="A24" s="3">
         <v>26</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25">
       <c r="A25" s="3">
         <v>27</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26">
       <c r="A26" s="3">
         <v>28</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27">
       <c r="A27" s="3">
         <v>29</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28">
       <c r="A28" s="3">
         <v>30</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29">
       <c r="A29" s="3">
         <v>31</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30">
       <c r="A30" s="3">
         <v>32</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31">
       <c r="A31" s="3">
         <v>33</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32">
       <c r="A32" s="3">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33">
       <c r="A33" s="3">
         <v>35</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34">
       <c r="A34" s="3">
         <v>36</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35">
       <c r="A35" s="3">
         <v>38</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36">
       <c r="A36" s="3">
         <v>37</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37">
       <c r="A37" s="3">
         <v>40</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38">
       <c r="A38" s="3">
         <v>41</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39">
       <c r="A39" s="3">
         <v>43</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41">
       <c r="A41" s="3">
         <v>44</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42">
       <c r="A42" s="3">
         <v>45</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43">
       <c r="A43" s="3">
         <v>46</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45">
       <c r="A45" s="3">
         <v>46</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46">
       <c r="A46" s="3">
         <v>48</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47">
       <c r="A47" s="3">
         <v>50</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48">
       <c r="A48" s="3">
         <v>51</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49">
       <c r="A49" s="3">
         <v>52</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50">
       <c r="A50" s="3">
         <v>53</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51">
       <c r="A51" s="3">
         <v>54</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52">
       <c r="A52" s="3">
         <v>54</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53">
       <c r="A53" s="3">
         <v>55</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54">
       <c r="A54" s="3">
         <v>56</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55">
       <c r="A55" s="3">
         <v>57</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56">
       <c r="A56" s="3">
         <v>59</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57">
       <c r="A57" s="3">
         <v>59</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58">
       <c r="A58" s="3">
         <v>47</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60">
       <c r="A60" s="3">
         <v>28</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61">
       <c r="A61" s="3">
         <v>42</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62">
       <c r="A62" s="3">
         <v>45</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63">
       <c r="A63" s="3">
         <v>27</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64">
       <c r="A64" s="3">
         <v>52</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66">
       <c r="A66" s="3">
         <v>40</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67">
       <c r="A67" s="3">
         <v>37</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68">
       <c r="A68" s="3">
         <v>52</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69">
       <c r="A69" s="3">
         <v>13</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70">
       <c r="A70" s="3">
         <v>53</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71">
       <c r="A71" s="3">
         <v>54</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72">
       <c r="A72" s="3">
         <v>17</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73">
       <c r="A73" s="3">
         <v>18</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74">
       <c r="A74" s="3">
         <v>23</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75">
       <c r="A75" s="3">
         <v>26</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76">
       <c r="A76" s="3">
         <v>38</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77">
       <c r="A77" s="3">
         <v>46</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78">
       <c r="A78" s="3">
         <v>15</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79">
       <c r="A79" s="3">
         <v>36</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80">
       <c r="A80" s="3">
         <v>15</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81">
       <c r="A81" s="3">
         <v>5</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82">
       <c r="A82" s="3">
         <v>5</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83">
       <c r="A83" s="3">
         <v>22</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84">
       <c r="A84" s="3">
         <v>22</v>
       </c>
@@ -1707,62 +1707,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1776,19 +1776,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="true"/>
+    <col min="2" max="3" width="11.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1801,10 +1801,8 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1817,10 +1815,8 @@
       <c r="D2" s="3">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1833,10 +1829,8 @@
       <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1849,10 +1843,8 @@
       <c r="D4" s="3">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1865,10 +1857,8 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1881,10 +1871,8 @@
       <c r="D6" s="3">
         <v>8</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1897,10 +1885,8 @@
       <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1913,10 +1899,8 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1929,10 +1913,8 @@
       <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1945,10 +1927,8 @@
       <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1961,10 +1941,8 @@
       <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1977,10 +1955,8 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1993,10 +1969,8 @@
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2009,10 +1983,8 @@
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2025,10 +1997,8 @@
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2041,10 +2011,8 @@
       <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2057,10 +2025,8 @@
       <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2073,10 +2039,8 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2089,10 +2053,8 @@
       <c r="D19" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2105,10 +2067,8 @@
       <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2121,10 +2081,8 @@
       <c r="D21" s="3">
         <v>9</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2137,10 +2095,8 @@
       <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2153,10 +2109,8 @@
       <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2169,10 +2123,8 @@
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2185,10 +2137,8 @@
       <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="15">
+    </row>
+    <row r="26" ht="15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2201,10 +2151,8 @@
       <c r="D26" s="3">
         <v>9</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
+    </row>
+    <row r="27" ht="15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2217,10 +2165,8 @@
       <c r="D27" s="3">
         <v>9</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2233,10 +2179,8 @@
       <c r="D28" s="3">
         <v>8</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2249,10 +2193,8 @@
       <c r="D29" s="3">
         <v>8</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2265,10 +2207,8 @@
       <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2281,10 +2221,8 @@
       <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2297,10 +2235,8 @@
       <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2313,10 +2249,8 @@
       <c r="D33" s="3">
         <v>8</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2329,10 +2263,8 @@
       <c r="D34" s="3">
         <v>2</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2345,10 +2277,8 @@
       <c r="D35" s="3">
         <v>2</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2361,10 +2291,8 @@
       <c r="D36" s="3">
         <v>2</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2377,10 +2305,8 @@
       <c r="D37" s="3">
         <v>9</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2393,10 +2319,8 @@
       <c r="D38" s="3">
         <v>4</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2409,10 +2333,8 @@
       <c r="D39" s="3">
         <v>7</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2425,10 +2347,8 @@
       <c r="D40" s="3">
         <v>6</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2441,10 +2361,8 @@
       <c r="D41" s="3">
         <v>5</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2457,10 +2375,8 @@
       <c r="D42" s="3">
         <v>2</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2473,10 +2389,8 @@
       <c r="D43" s="3">
         <v>2</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2489,10 +2403,8 @@
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="15">
+    </row>
+    <row r="45" ht="15">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2505,10 +2417,8 @@
       <c r="D45" s="3">
         <v>9</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2521,10 +2431,8 @@
       <c r="D46" s="3">
         <v>7</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2537,10 +2445,8 @@
       <c r="D47" s="3">
         <v>5</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2553,10 +2459,8 @@
       <c r="D48" s="3">
         <v>8</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2569,10 +2473,8 @@
       <c r="D49" s="3">
         <v>3</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2585,10 +2487,8 @@
       <c r="D50" s="3">
         <v>2</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="15">
+    </row>
+    <row r="51" ht="15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2601,10 +2501,8 @@
       <c r="D51" s="3">
         <v>6</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2617,10 +2515,8 @@
       <c r="D52" s="3">
         <v>8</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2633,10 +2529,8 @@
       <c r="D53" s="3">
         <v>6</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2649,10 +2543,8 @@
       <c r="D54" s="3">
         <v>5</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2665,10 +2557,8 @@
       <c r="D55" s="3">
         <v>3</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2681,10 +2571,8 @@
       <c r="D56" s="3">
         <v>5</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2697,10 +2585,8 @@
       <c r="D57" s="3">
         <v>5</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2713,10 +2599,8 @@
       <c r="D58" s="3">
         <v>1</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2729,10 +2613,8 @@
       <c r="D59" s="3">
         <v>1</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2745,10 +2627,8 @@
       <c r="D60" s="3">
         <v>5</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2761,288 +2641,216 @@
       <c r="D61" s="3">
         <v>2</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/60支股票信息.xlsx
+++ b/data/60支股票信息.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\StockSystem\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\QStocksys\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFCD7B-53BD-4DEB-BCA4-79CBEA8D94E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CCAF55-6FDD-4BA8-BA61-8FFED901D778}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-810" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="true"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -496,10 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -783,7 +783,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -849,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -959,7 +959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -981,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>21</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>23</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>24</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>25</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="3">
         <v>26</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>27</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="3">
         <v>28</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="3">
         <v>29</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="3">
         <v>30</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="3">
         <v>31</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="3">
         <v>32</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="3">
         <v>33</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="3">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="3">
         <v>35</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="3">
         <v>36</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="3">
         <v>38</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="3">
         <v>37</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="3">
         <v>40</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="3">
         <v>41</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="3">
         <v>43</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="3">
         <v>44</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="3">
         <v>45</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="3">
         <v>46</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="3">
         <v>46</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="3">
         <v>48</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="3">
         <v>50</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48" s="3">
         <v>51</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49" s="3">
         <v>52</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50" s="3">
         <v>53</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51" s="3">
         <v>54</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52" s="3">
         <v>54</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53" s="3">
         <v>55</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54" s="3">
         <v>56</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3">
       <c r="A55" s="3">
         <v>57</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56" s="3">
         <v>59</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3">
       <c r="A57" s="3">
         <v>59</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58" s="3">
         <v>47</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60" s="3">
         <v>28</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61" s="3">
         <v>42</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62" s="3">
         <v>45</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63" s="3">
         <v>27</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64" s="3">
         <v>52</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" s="3">
         <v>40</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67" s="3">
         <v>37</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68" s="3">
         <v>52</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69" s="3">
         <v>13</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70" s="3">
         <v>53</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71" s="3">
         <v>54</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72" s="3">
         <v>17</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73" s="3">
         <v>18</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3">
       <c r="A74" s="3">
         <v>23</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75" s="3">
         <v>26</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76" s="3">
         <v>38</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77" s="3">
         <v>46</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78" s="3">
         <v>15</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79" s="3">
         <v>36</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80" s="3">
         <v>15</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3">
       <c r="A81" s="3">
         <v>5</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3">
       <c r="A82" s="3">
         <v>5</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3">
       <c r="A83" s="3">
         <v>22</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3">
       <c r="A84" s="3">
         <v>22</v>
       </c>
@@ -1707,62 +1707,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1778,17 +1778,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="true"/>
-    <col min="2" max="3" width="11.5" customWidth="true"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1827,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1841,10 +1841,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1855,10 +1855,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1869,10 +1869,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1883,10 +1883,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1897,10 +1897,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1911,10 +1911,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1925,10 +1925,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1939,10 +1939,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1953,10 +1953,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1967,10 +1967,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1981,10 +1981,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1995,10 +1995,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2009,10 +2009,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2023,10 +2023,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2037,10 +2037,10 @@
         <v>40</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2051,10 +2051,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2065,10 +2065,10 @@
         <v>44</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2079,10 +2079,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2093,10 +2093,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2107,10 +2107,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2121,10 +2121,10 @@
         <v>52</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2135,10 +2135,10 @@
         <v>54</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" ht="15">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2149,10 +2149,10 @@
         <v>56</v>
       </c>
       <c r="D26" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" ht="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2163,10 +2163,10 @@
         <v>58</v>
       </c>
       <c r="D27" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2205,10 +2205,10 @@
         <v>64</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2219,10 +2219,10 @@
         <v>66</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2233,10 +2233,10 @@
         <v>68</v>
       </c>
       <c r="D32" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2247,10 +2247,10 @@
         <v>70</v>
       </c>
       <c r="D33" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2261,10 +2261,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2275,10 +2275,10 @@
         <v>74</v>
       </c>
       <c r="D35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2289,10 +2289,10 @@
         <v>76</v>
       </c>
       <c r="D36" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2303,10 +2303,10 @@
         <v>78</v>
       </c>
       <c r="D37" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2317,10 +2317,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2331,10 +2331,10 @@
         <v>82</v>
       </c>
       <c r="D39" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2345,10 +2345,10 @@
         <v>84</v>
       </c>
       <c r="D40" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2359,10 +2359,10 @@
         <v>86</v>
       </c>
       <c r="D41" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2373,10 +2373,10 @@
         <v>88</v>
       </c>
       <c r="D42" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2387,10 +2387,10 @@
         <v>90</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2401,10 +2401,10 @@
         <v>92</v>
       </c>
       <c r="D44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" ht="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2415,10 +2415,10 @@
         <v>94</v>
       </c>
       <c r="D45" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2429,10 +2429,10 @@
         <v>96</v>
       </c>
       <c r="D46" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2443,10 +2443,10 @@
         <v>98</v>
       </c>
       <c r="D47" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2457,10 +2457,10 @@
         <v>100</v>
       </c>
       <c r="D48" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2471,10 +2471,10 @@
         <v>102</v>
       </c>
       <c r="D49" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2485,10 +2485,10 @@
         <v>104</v>
       </c>
       <c r="D50" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" ht="15">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2499,10 +2499,10 @@
         <v>106</v>
       </c>
       <c r="D51" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2513,10 +2513,10 @@
         <v>108</v>
       </c>
       <c r="D52" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2527,10 +2527,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2541,10 +2541,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2555,10 +2555,10 @@
         <v>114</v>
       </c>
       <c r="D55" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2569,10 +2569,10 @@
         <v>116</v>
       </c>
       <c r="D56" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2583,10 +2583,10 @@
         <v>118</v>
       </c>
       <c r="D57" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2597,10 +2597,10 @@
         <v>120</v>
       </c>
       <c r="D58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2611,10 +2611,10 @@
         <v>122</v>
       </c>
       <c r="D59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2625,10 +2625,10 @@
         <v>124</v>
       </c>
       <c r="D60" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2639,214 +2639,214 @@
         <v>126</v>
       </c>
       <c r="D61" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
